--- a/medicine/Psychotrope/Sauce_Robert/Sauce_Robert.xlsx
+++ b/medicine/Psychotrope/Sauce_Robert/Sauce_Robert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sauce Robert, ou sauce à la Robert, est une sauce brune relevée, faite d’oignons hachés qu’on fait revenir communément au beurre et au vin blanc avec un peu de farine, vinaigre, sel et poivre[1]. En fin de préparation, une fois retirée du feu, on y ajoute un peu de moutarde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sauce Robert, ou sauce à la Robert, est une sauce brune relevée, faite d’oignons hachés qu’on fait revenir communément au beurre et au vin blanc avec un peu de farine, vinaigre, sel et poivre. En fin de préparation, une fois retirée du feu, on y ajoute un peu de moutarde.
 Condimentée de cornichons en julienne, elle devient sauce charcutière.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Accompagnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sauce Robert accompagne de manière générale les pièces de boucherie grillées, le poulet, pigeon et gibier, porc, lapin et canard rôtis, les œufs pochés et le merlu.
 </t>
@@ -543,7 +557,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Déjà signalée au XVIe siècle par Rabelais, qui range, au nombre de ceux qui ont bien mérité de la patrie, son inventeur, le cuisinier Robert, l’appelait la sauce « tant salubre et nécessaire ».
 Dans le conte de La Belle au bois dormant de Charles Perrault, l’ogresse, qui souhaite manger sa bru et ses petits-enfants, demande à son maître d’hôtel de lui préparer la petite Aurore à la sauce Robert :
